--- a/Documents/Burndownchart.xlsx
+++ b/Documents/Burndownchart.xlsx
@@ -555,16 +555,16 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D9" s="7">
         <f>I32</f>
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D10" s="1">
         <f>J32</f>
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D11" s="1">
         <f>K32</f>
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D12" s="1">
         <f>L32</f>
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,9 +2002,15 @@
       <c r="H21" s="1">
         <v>9</v>
       </c>
+      <c r="I21" s="1">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
       <c r="M21" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2017,9 +2023,12 @@
       <c r="H22" s="1">
         <v>9</v>
       </c>
+      <c r="I22" s="1">
+        <v>9</v>
+      </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2047,9 +2056,15 @@
       <c r="B24" s="1">
         <v>27</v>
       </c>
+      <c r="I24" s="1">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9</v>
+      </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24:M27" si="1">SUM(C24:J24)/B24*100</f>
-        <v>0</v>
+        <f t="shared" ref="M24:M30" si="1">SUM(C24:J24)/B24*100</f>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2059,9 +2074,12 @@
       <c r="B25" s="1">
         <v>9</v>
       </c>
+      <c r="I25" s="1">
+        <v>9</v>
+      </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2071,9 +2089,12 @@
       <c r="B26" s="1">
         <v>9</v>
       </c>
+      <c r="I26" s="1">
+        <v>9</v>
+      </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2083,9 +2104,12 @@
       <c r="B27" s="1">
         <v>18</v>
       </c>
+      <c r="J27" s="1">
+        <v>9</v>
+      </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2096,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="M28" s="1">
-        <f>SUM(C28:J28)/B28*100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2107,8 +2131,12 @@
       <c r="B29" s="1">
         <v>18</v>
       </c>
+      <c r="J29" s="1">
+        <v>9</v>
+      </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2119,6 +2147,7 @@
         <v>9</v>
       </c>
       <c r="M30" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2167,44 +2196,44 @@
         <v>306</v>
       </c>
       <c r="C32" s="1">
-        <f>B32-SUM(C17:C30)</f>
+        <f t="shared" ref="C32:L32" si="2">B32-SUM(C17:C30)</f>
         <v>306</v>
       </c>
       <c r="D32" s="1">
-        <f>C32-SUM(D17:D30)</f>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="E32" s="1">
-        <f>D32-SUM(E17:E30)</f>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="F32" s="1">
-        <f>E32-SUM(F17:F30)</f>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="G32" s="1">
-        <f>F32-SUM(G17:G30)</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="H32" s="1">
-        <f>G32-SUM(H17:H30)</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="I32" s="1">
-        <f>H32-SUM(I17:I30)</f>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="J32" s="1">
-        <f>I32-SUM(J17:J30)</f>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="K32" s="1">
-        <f>J32-SUM(K17:K30)</f>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="L32" s="1">
-        <f>K32-SUM(L17:L30)</f>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">

--- a/Documents/Burndownchart.xlsx
+++ b/Documents/Burndownchart.xlsx
@@ -561,10 +561,10 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="C17" sqref="C17:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="D11" s="1">
         <f>K32</f>
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D12" s="1">
         <f>L32</f>
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" ref="M17:M23" si="0">SUM(C17:J17)/B17*100</f>
+        <f>SUM(C17:L17)/B17*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M18:M30" si="0">SUM(C18:L18)/B18*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2062,9 +2062,12 @@
       <c r="J24" s="1">
         <v>9</v>
       </c>
+      <c r="K24" s="1">
+        <v>9</v>
+      </c>
       <c r="M24" s="1">
-        <f t="shared" ref="M24:M30" si="1">SUM(C24:J24)/B24*100</f>
-        <v>66.666666666666657</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2078,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2093,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2107,9 +2110,12 @@
       <c r="J27" s="1">
         <v>9</v>
       </c>
+      <c r="K27" s="1">
+        <v>9</v>
+      </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2119,9 +2125,15 @@
       <c r="B28" s="1">
         <v>18</v>
       </c>
+      <c r="K28" s="1">
+        <v>9</v>
+      </c>
+      <c r="L28" s="1">
+        <v>9</v>
+      </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2134,9 +2146,12 @@
       <c r="J29" s="1">
         <v>9</v>
       </c>
+      <c r="K29" s="1">
+        <v>9</v>
+      </c>
       <c r="M29" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2146,9 +2161,12 @@
       <c r="B30" s="1">
         <v>9</v>
       </c>
+      <c r="L30" s="1">
+        <v>9</v>
+      </c>
       <c r="M30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2196,44 +2214,44 @@
         <v>306</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:L32" si="2">B32-SUM(C17:C30)</f>
+        <f t="shared" ref="C32:L32" si="1">B32-SUM(C17:C30)</f>
         <v>306</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">

--- a/Documents/Burndownchart.xlsx
+++ b/Documents/Burndownchart.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_____Business_Application_Development\___Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Business App Development Project\BusinessAppDev\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D80A82-E666-495A-8BDA-7E9B02351311}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>ideal</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Hours Spent up to day</t>
   </si>
@@ -118,13 +110,34 @@
   </si>
   <si>
     <t>3. User-Reg/Login</t>
+  </si>
+  <si>
+    <t>Allocated time frame</t>
+  </si>
+  <si>
+    <t>+20%</t>
+  </si>
+  <si>
+    <t>Note: Customer-Comment and Company-Comment were completed with Customer-Save (Surendra)</t>
+  </si>
+  <si>
+    <t>Note: Customer-Search not completed with allocated time. Admin-Add not completed.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>9 hours per person per week. (Total 36 hours).</t>
+  </si>
+  <si>
+    <t>Total class time per week: 18 hours. The 9 extra hours were in case a person was sick and /or to catch up if needed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +168,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC1D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,10 +251,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -243,9 +270,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -272,7 +328,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -309,9 +365,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2370136138549283E-2"/>
+          <c:x val="6.7619401905470472E-2"/>
           <c:y val="5.9379217273954114E-2"/>
-          <c:w val="0.8952176703558179"/>
+          <c:w val="0.88996837993676003"/>
           <c:h val="0.69191154749381023"/>
         </c:manualLayout>
       </c:layout>
@@ -327,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ideal</c:v>
+                  <c:v>Ideal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -362,9 +418,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -404,9 +457,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>306</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>306</c:v>
                 </c:pt>
@@ -456,7 +506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>actual</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -491,9 +541,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -533,38 +580,35 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>306</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>234</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +750,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1320,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1646,11 +1689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:L30"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1661,34 +1704,31 @@
     <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" style="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="6.28515625" style="1"/>
+    <col min="14" max="14" width="7" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="6.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>306</v>
-      </c>
-      <c r="D2" s="1">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1700,10 +1740,13 @@
         <f>C32</f>
         <v>306</v>
       </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>18</v>
@@ -1713,12 +1756,15 @@
       </c>
       <c r="D4" s="1">
         <f>D32</f>
-        <v>270</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>54</v>
@@ -1728,12 +1774,15 @@
       </c>
       <c r="D5" s="1">
         <f>E32</f>
-        <v>234</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>90</v>
@@ -1743,12 +1792,15 @@
       </c>
       <c r="D6" s="1">
         <f>F32</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>126</v>
@@ -1758,12 +1810,18 @@
       </c>
       <c r="D7" s="1">
         <f>G32</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>162</v>
@@ -1773,12 +1831,15 @@
       </c>
       <c r="D8" s="1">
         <f>H32</f>
-        <v>135</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>198</v>
@@ -1788,12 +1849,15 @@
       </c>
       <c r="D9" s="7">
         <f>I32</f>
-        <v>90</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>234</v>
@@ -1803,12 +1867,15 @@
       </c>
       <c r="D10" s="1">
         <f>J32</f>
-        <v>54</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>270</v>
@@ -1818,12 +1885,15 @@
       </c>
       <c r="D11" s="1">
         <f>K32</f>
-        <v>18</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>306</v>
@@ -1833,12 +1903,25 @@
       </c>
       <c r="D12" s="1">
         <f>L32</f>
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1854,10 +1937,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -1890,288 +1973,345 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>45</v>
       </c>
-      <c r="D17" s="1">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9</v>
-      </c>
-      <c r="M17" s="1">
-        <f>SUM(C17:L17)/B17*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="10">
+        <f>SUM(C17:L17)/B17</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>27</v>
       </c>
-      <c r="D18" s="1">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" ref="M18:M30" si="0">SUM(C18:L18)/B18*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D18" s="12">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12">
+        <v>9</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="M18" s="10">
+        <f t="shared" ref="M18:M30" si="0">SUM(C18:L18)/B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>27</v>
       </c>
-      <c r="D19" s="1">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="D19" s="12">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12">
+        <v>9</v>
+      </c>
+      <c r="F19" s="12">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="12">
         <v>6</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>9</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="D20" s="12">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12">
+        <v>9</v>
+      </c>
+      <c r="M20" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>45</v>
       </c>
-      <c r="F21" s="1">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1">
-        <v>9</v>
-      </c>
-      <c r="H21" s="1">
-        <v>9</v>
-      </c>
-      <c r="I21" s="1">
-        <v>9</v>
-      </c>
-      <c r="J21" s="1">
-        <v>9</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F21" s="12">
+        <v>9</v>
+      </c>
+      <c r="G21" s="12">
+        <v>9</v>
+      </c>
+      <c r="H21" s="12">
+        <v>9</v>
+      </c>
+      <c r="I21" s="12">
+        <v>9</v>
+      </c>
+      <c r="J21" s="12">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9</v>
+      </c>
+      <c r="M21" s="10">
+        <f>SUM(C21:J21)/B21</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="H22" s="1">
-        <v>9</v>
-      </c>
-      <c r="I22" s="1">
-        <v>9</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="H22" s="12">
+        <v>9</v>
+      </c>
+      <c r="I22" s="12">
+        <v>9</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="12">
         <v>3</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="12">
         <v>15</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>27</v>
       </c>
-      <c r="I24" s="1">
-        <v>9</v>
-      </c>
-      <c r="J24" s="1">
-        <v>9</v>
-      </c>
-      <c r="K24" s="1">
-        <v>9</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="I24" s="12">
+        <v>9</v>
+      </c>
+      <c r="J24" s="12">
+        <v>9</v>
+      </c>
+      <c r="K24" s="12">
+        <v>9</v>
+      </c>
+      <c r="M24" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="I25" s="1">
-        <v>9</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="I25" s="12">
+        <v>9</v>
+      </c>
+      <c r="M25" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
         <v>9</v>
       </c>
-      <c r="I26" s="1">
-        <v>9</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="I26" s="12">
+        <v>9</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="J27" s="1">
-        <v>9</v>
-      </c>
-      <c r="K27" s="1">
-        <v>9</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+    </row>
+    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1">
         <v>18</v>
       </c>
-      <c r="K28" s="1">
-        <v>9</v>
-      </c>
-      <c r="L28" s="1">
-        <v>9</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1">
         <v>18</v>
       </c>
-      <c r="J29" s="1">
-        <v>9</v>
-      </c>
-      <c r="K29" s="1">
-        <v>9</v>
-      </c>
-      <c r="M29" s="1">
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>9</v>
       </c>
-      <c r="L30" s="1">
-        <v>9</v>
-      </c>
-      <c r="M30" s="1">
+      <c r="K30" s="12">
+        <v>9</v>
+      </c>
+      <c r="M30" s="10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6">
@@ -2205,9 +2345,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <f>SUM(B17:B30)</f>
@@ -2219,44 +2359,44 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <f>B32</f>
@@ -2304,8 +2444,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="F2:H6"/>
+    <mergeCell ref="F7:H13"/>
     <mergeCell ref="A15:L15"/>
+    <mergeCell ref="O28:X29"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="O27:AD27"/>
   </mergeCells>
   <conditionalFormatting sqref="M17:M30">
     <cfRule type="colorScale" priority="2">

--- a/Documents/Burndownchart.xlsx
+++ b/Documents/Burndownchart.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Business App Development Project\BusinessAppDev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_____Business_Application_Development\___Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D80A82-E666-495A-8BDA-7E9B02351311}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -115,9 +114,6 @@
     <t>Allocated time frame</t>
   </si>
   <si>
-    <t>+20%</t>
-  </si>
-  <si>
     <t>Note: Customer-Comment and Company-Comment were completed with Customer-Save (Surendra)</t>
   </si>
   <si>
@@ -127,16 +123,19 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>9 hours per person per week. (Total 36 hours).</t>
-  </si>
-  <si>
     <t>Total class time per week: 18 hours. The 9 extra hours were in case a person was sick and /or to catch up if needed.</t>
+  </si>
+  <si>
+    <t>9 hours per person per week. (Total 36 hours for group).</t>
+  </si>
+  <si>
+    <t>+40%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,30 +263,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -295,8 +276,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -328,7 +327,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -605,10 +604,10 @@
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,6 +749,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,11 +1689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1710,7 +1710,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>5</v>
@@ -1720,11 +1720,11 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1740,9 +1740,9 @@
         <f>C32</f>
         <v>306</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1758,9 +1758,9 @@
         <f>D32</f>
         <v>276</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1776,9 +1776,9 @@
         <f>E32</f>
         <v>246</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1794,9 +1794,9 @@
         <f>F32</f>
         <v>222</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1812,12 +1812,12 @@
         <f>G32</f>
         <v>201</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1833,9 +1833,9 @@
         <f>H32</f>
         <v>165</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1851,9 +1851,9 @@
         <f>I32</f>
         <v>117</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1869,9 +1869,9 @@
         <f>J32</f>
         <v>96</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="D11" s="1">
         <f>K32</f>
-        <v>66</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1903,37 +1903,37 @@
       </c>
       <c r="D12" s="1">
         <f>L32</f>
-        <v>66</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1980,19 +1980,19 @@
       <c r="B17" s="1">
         <v>45</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <v>3</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="9">
         <v>3</v>
       </c>
       <c r="I17" s="1">
@@ -2004,16 +2004,16 @@
       <c r="K17" s="1">
         <v>3</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <f>SUM(C17:L17)/B17</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2022,18 +2022,18 @@
       <c r="B18" s="1">
         <v>27</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>9</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>9</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <v>9</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="M18" s="10">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="M18" s="8">
         <f t="shared" ref="M18:M30" si="0">SUM(C18:L18)/B18</f>
         <v>1</v>
       </c>
@@ -2045,19 +2045,19 @@
       <c r="B19" s="1">
         <v>27</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>9</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>9</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>6</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2069,13 +2069,13 @@
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>9</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>9</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2087,30 +2087,30 @@
       <c r="B21" s="1">
         <v>45</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>9</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="9">
         <v>9</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="9">
         <v>9</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>9</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="9">
         <v>9</v>
       </c>
       <c r="K21" s="1">
-        <v>9</v>
-      </c>
-      <c r="M21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="8">
         <f>SUM(C21:J21)/B21</f>
         <v>1</v>
       </c>
-      <c r="N21" s="17" t="s">
-        <v>31</v>
+      <c r="N21" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -2120,13 +2120,13 @@
       <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="9">
         <v>9</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <v>9</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2138,13 +2138,13 @@
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="9">
         <v>3</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="9">
         <v>15</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2156,16 +2156,16 @@
       <c r="B24" s="1">
         <v>27</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <v>9</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="9">
         <v>9</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="9">
         <v>9</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2177,10 +2177,10 @@
       <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <v>9</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2192,10 +2192,10 @@
       <c r="B26" s="1">
         <v>9</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <v>9</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2207,34 +2207,34 @@
       <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="9">
         <v>0</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="9">
         <v>0</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
+      <c r="O27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -2243,28 +2243,28 @@
       <c r="B28" s="1">
         <v>18</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="9">
         <v>0</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="9">
         <v>0</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
+      <c r="O28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2273,26 +2273,26 @@
       <c r="B29" s="1">
         <v>18</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="9">
         <v>0</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="9">
         <v>0</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2301,10 +2301,10 @@
       <c r="B30" s="1">
         <v>9</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="9">
         <v>9</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2387,11 +2387,11 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">

--- a/Documents/Burndownchart.xlsx
+++ b/Documents/Burndownchart.xlsx
@@ -1692,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1701,7 @@
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="10" width="6.28515625" style="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" style="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" customWidth="1"/>
